--- a/data/trans_dic/P3A_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R2-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,43%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>1,38; 3,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>2,96; 5,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>1,1; 3,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>4,83; 8,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>1,13; 3,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>2,78; 5,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>1,67; 4,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>5,0; 7,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>1,49; 3,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>3,22; 5,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>1,58; 3,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>5,41; 7,61</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,93%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>2,54; 5,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>3,03; 5,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,37; 3,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,54; 4,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,89; 2,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,95; 5,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,55; 3,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,2; 6,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>1,97; 3,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>3,32; 5,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,67; 3,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,73; 4,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,77%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,46; 5,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>1,17; 3,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,33; 3,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,57; 5,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,2; 4,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,53; 5,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,45; 3,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>1,9; 5,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,61; 4,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,13; 4,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,72; 3,42</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,45; 4,87</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,64%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>4,64; 7,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>3,14; 5,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,22; 4,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>3,86; 6,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>3,83; 6,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>4,59; 7,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,79; 5,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>4,78; 7,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>4,63; 6,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>4,23; 6,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,85; 4,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>4,75; 6,6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,85%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,41; 4,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>3,11; 4,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>1,96; 2,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,41; 5,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,57; 3,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,81; 5,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,48; 3,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,33; 6,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,18; 4,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,68; 4,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,35; 3,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>4,17; 5,4</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P3A_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,48</t>
+          <t>1,36; 3,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 5,96</t>
+          <t>2,95; 6,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,26</t>
+          <t>1,14; 3,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,83; 8,19</t>
+          <t>4,82; 8,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,26</t>
+          <t>1,12; 3,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,7</t>
+          <t>2,65; 5,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,6</t>
+          <t>1,64; 4,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,0; 7,93</t>
+          <t>5,01; 7,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,03</t>
+          <t>1,46; 2,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,32</t>
+          <t>3,17; 5,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,44</t>
+          <t>1,67; 3,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,41; 7,61</t>
+          <t>5,39; 7,53</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,01</t>
+          <t>2,48; 5,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,7</t>
+          <t>2,97; 5,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,42</t>
+          <t>1,34; 3,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,59</t>
+          <t>1,38; 4,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,61</t>
+          <t>0,97; 2,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,51</t>
+          <t>2,87; 5,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,96</t>
+          <t>1,53; 3,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,2; 6,36</t>
+          <t>4,18; 6,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 3,52</t>
+          <t>1,96; 3,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 5,09</t>
+          <t>3,22; 5,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,11</t>
+          <t>1,67; 3,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 4,96</t>
+          <t>2,74; 4,97</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,29</t>
+          <t>2,44; 5,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,58</t>
+          <t>1,21; 3,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,67</t>
+          <t>1,37; 3,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,53</t>
+          <t>2,59; 5,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,99</t>
+          <t>2,17; 5,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,44</t>
+          <t>2,28; 5,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,98</t>
+          <t>1,49; 3,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,34</t>
+          <t>1,89; 5,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,64</t>
+          <t>2,56; 4,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,14</t>
+          <t>2,11; 4,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,42</t>
+          <t>1,68; 3,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 4,87</t>
+          <t>2,45; 4,84</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 7,9</t>
+          <t>4,55; 7,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 5,92</t>
+          <t>3,25; 5,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,44</t>
+          <t>2,24; 4,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 6,71</t>
+          <t>3,88; 6,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 6,64</t>
+          <t>3,91; 6,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 7,9</t>
+          <t>4,65; 7,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,49</t>
+          <t>2,91; 5,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,78; 7,55</t>
+          <t>4,78; 7,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 6,66</t>
+          <t>4,62; 6,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 6,28</t>
+          <t>4,24; 6,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 4,72</t>
+          <t>2,87; 4,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 6,6</t>
+          <t>4,71; 6,6</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 4,8</t>
+          <t>3,36; 4,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,11; 4,5</t>
+          <t>3,14; 4,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,96; 2,98</t>
+          <t>1,96; 3,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,1</t>
+          <t>3,35; 5,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 3,8</t>
+          <t>2,59; 3,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 5,28</t>
+          <t>3,93; 5,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,76</t>
+          <t>2,4; 3,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,02</t>
+          <t>4,46; 6,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,18; 4,06</t>
+          <t>3,18; 4,08</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,68; 4,72</t>
+          <t>3,72; 4,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 3,2</t>
+          <t>2,35; 3,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,17; 5,4</t>
+          <t>4,24; 5,45</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente una persona con remuneración</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15525</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>30633</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13210</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>40006</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13972</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>27927</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19248</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>47512</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>29497</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>58561</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>32457</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>87518</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9434; 25901</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20779; 42378</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7665; 21598</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>30578; 52113</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7710; 22208</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>18454; 40515</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11021; 30199</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>36343; 57186</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20190; 40806</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>44385; 75453</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>22455; 46678</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>73307; 102437</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>34817</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>42335</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21829</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>35255</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15884</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>42544</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>25485</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>49385</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>50701</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>84879</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>47314</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>84639</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>23808; 49566</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>30240; 57342</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13646; 33206</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>16462; 53347</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9352; 25410</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>29635; 57065</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>15972; 38591</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>40087; 61274</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>37827; 67106</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>65997; 104573</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>34383; 63957</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>58873; 107001</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24731</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16759</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17098</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>26717</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>22809</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>28363</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19679</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>35001</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>47540</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>45122</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>36777</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>61719</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16573; 36235</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9163; 27006</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10344; 28698</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18258; 38723</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14797; 34511</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>17670; 41653</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11657; 30935</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17682; 50731</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34815; 62556</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>32376; 62876</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>25837; 51083</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>40163; 79310</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>57363</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>41277</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>30022</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>47072</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>53619</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>63031</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>42504</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>66832</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>110982</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>104308</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>72525</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>113903</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>42795; 74042</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>30790; 56072</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>20951; 42220</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>35956; 62441</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>40583; 68956</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>48880; 81909</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>30385; 58336</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>52277; 81205</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>91378; 130911</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>84780; 125211</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>56650; 91174</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>95220; 133396</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>132436</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>131005</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>82158</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>149050</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>106285</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>161866</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>106916</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>198729</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>238721</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>292870</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>189073</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>347779</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>110225; 156128</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>107733; 154617</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>66300; 101792</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>115754; 179417</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>87566; 128710</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>139713; 192863</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>84935; 132123</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>165465; 223279</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>211408; 271328</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>260008; 327290</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>162745; 220265</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>303718; 390597</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>